--- a/hmw_3_Postman_Strashchenko.xlsx
+++ b/hmw_3_Postman_Strashchenko.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -35,21 +35,9 @@
     <t>salary</t>
   </si>
   <si>
-    <t>ArinaАрина123</t>
-  </si>
-  <si>
-    <t>~!@#$%^&amp;*-+{}|:”&gt;?&lt;Ё!”№;%:?*()_Ъ,/.’[]\</t>
-  </si>
-  <si>
     <t>Кол-во символов</t>
   </si>
   <si>
-    <t>Aр1</t>
-  </si>
-  <si>
-    <t>ArinaАрина123456789012345678901234567890</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
@@ -65,48 +53,21 @@
     <t>1.23</t>
   </si>
   <si>
-    <t>Aр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arinaaaaaaaaaaaaaaaaaaaaaaaaaa12345678900 </t>
-  </si>
-  <si>
     <t>&lt;script&gt;alert(«I hacked this!»)&lt;/script&gt;</t>
   </si>
   <si>
-    <t>▲♦♥</t>
-  </si>
-  <si>
     <t>+18</t>
   </si>
   <si>
     <t>-18</t>
   </si>
   <si>
-    <t>18,1</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
     <t>2000e-2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 </t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>йQ</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -114,25 +75,55 @@
   </si>
   <si>
     <t>1000001</t>
+  </si>
+  <si>
+    <t>QqЛл1234 *?/\|&lt;&gt;,.()[]{};:'"!@#$%^&amp;`~+-№</t>
+  </si>
+  <si>
+    <t>Qл1</t>
+  </si>
+  <si>
+    <t>Qл</t>
+  </si>
+  <si>
+    <t>QqЛл12345 *?/\|&lt;&gt;,.()[]{};:'"!@#$%^&amp;`~+-№</t>
+  </si>
+  <si>
+    <t>DROP TABLE user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 </t>
+  </si>
+  <si>
+    <t>1 8</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -146,16 +137,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -194,31 +177,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,286 +494,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="38.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <f>LEN(A2)</f>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B14" si="0">LEN(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B16" si="0">LEN(A3)</f>
-        <v>39</v>
-      </c>
-      <c r="C3" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>120</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>121</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
+      <c r="A10" s="2">
+        <v>1.23</v>
       </c>
       <c r="B10" s="3">
-        <f>LEN(A10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1.23</v>
+      <c r="A11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="A19" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hmw_3_Postman_Strashchenko.xlsx
+++ b/hmw_3_Postman_Strashchenko.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>1.8</t>
+  </si>
+  <si>
+    <t>1,23</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,8 +637,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1.23</v>
+      <c r="A10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>

--- a/hmw_3_Postman_Strashchenko.xlsx
+++ b/hmw_3_Postman_Strashchenko.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -110,13 +110,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>1,8</t>
-  </si>
-  <si>
     <t>1.8</t>
-  </si>
-  <si>
-    <t>1,23</t>
   </si>
 </sst>
 </file>
@@ -495,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +536,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B14" si="0">LEN(A3)</f>
+        <f t="shared" ref="B3:B15" si="0">LEN(A3)</f>
         <v>3</v>
       </c>
       <c r="C3" s="2">
@@ -638,7 +632,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
@@ -653,7 +647,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -668,11 +662,11 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -682,12 +676,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
+      <c r="A13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -697,12 +691,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -713,39 +705,32 @@
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hmw_3_Postman_Strashchenko.xlsx
+++ b/hmw_3_Postman_Strashchenko.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>1.8</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -190,9 +196,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -492,21 +495,21 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="38.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="38.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -710,15 +713,15 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
@@ -726,11 +729,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hmw_3_Postman_Strashchenko.xlsx
+++ b/hmw_3_Postman_Strashchenko.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -47,15 +47,9 @@
     <t xml:space="preserve">Arina </t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>1.23</t>
   </si>
   <si>
-    <t>&lt;script&gt;alert(«I hacked this!»)&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>+18</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>QqЛл12345 *?/\|&lt;&gt;,.()[]{};:'"!@#$%^&amp;`~+-№</t>
   </si>
   <si>
-    <t>DROP TABLE user;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -117,6 +108,9 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -148,12 +142,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -194,12 +194,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -209,7 +203,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -218,6 +215,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -492,255 +494,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="38.5703125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="38.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <f>LEN(C2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D41" si="0">LEN(C3)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>120</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>120</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>120</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>120</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>120</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>120</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>120</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>120</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>120</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>120</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>120</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>120</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>120</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>120</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>120</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>120</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>120</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>120</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>120</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>120</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3">
-        <f>LEN(A2)</f>
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>120</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B15" si="0">LEN(A3)</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>120</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>120</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
